--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/PLOT_HOAc_9.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/PLOT_HOAc_9.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\HOAc work\Ni(110)\all\Corrected TPD excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\HOAc work\Ni(110)\tpd and ir data\Corrected TPD excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7259,15 +7259,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>315884</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>191192</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>41564</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>565267</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>49876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7455,6 +7455,20 @@
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>0.013x</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1600">
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -7579,7 +7593,14 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>O</a:t>
+            <a:t>O </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>0.33x</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600">
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -7700,6 +7721,20 @@
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>0.03x</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1600">
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -7810,8 +7845,33 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>CO</a:t>
+            <a:t>CO </a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="600">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>0.03x</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -7917,6 +7977,82 @@
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83494</cdr:x>
+      <cdr:y>0.45794</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96747</cdr:x>
+      <cdr:y>0.66355</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BCBFB2E-D4FC-4731-8F2A-AE2AB3D1E62B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5760718" y="2036618"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.82169</cdr:x>
+      <cdr:y>0.45794</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95422</cdr:x>
+      <cdr:y>0.66355</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA83819-8FCB-40BD-9F39-F77516E9F091}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5669278" y="2036618"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -8247,7 +8383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>

--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/PLOT_HOAc_9.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/PLOT_HOAc_9.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>H2</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>divide by 3</t>
+  </si>
+  <si>
+    <t>figure is 5" x 8" and locked aspect ratio</t>
   </si>
 </sst>
 </file>
@@ -77,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -100,14 +103,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6404,7 +6421,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0">
+                  <a:rPr lang="en-US" sz="1600" b="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -6627,7 +6644,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -7259,16 +7276,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>315884</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>515390</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>565267</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>49876</xdr:rowOff>
+      <xdr:colOff>515390</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>141315</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7280,7 +7297,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8384,10 +8401,13 @@
   <dimension ref="A1:V219"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -8557,6 +8577,12 @@
       <c r="F4">
         <v>3528.0898400801038</v>
       </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -8595,6 +8621,14 @@
       <c r="N5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -8622,6 +8656,12 @@
         <f t="shared" ref="N6:N21" si="1">F2*N$2+N$3</f>
         <v>8884.3702755199593</v>
       </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -8649,6 +8689,12 @@
         <f t="shared" si="1"/>
         <v>9155.35264347876</v>
       </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -8676,6 +8722,12 @@
         <f t="shared" si="1"/>
         <v>10584.269520240312</v>
       </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -8703,6 +8755,12 @@
         <f t="shared" si="1"/>
         <v>8023.186397001864</v>
       </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -8730,6 +8788,12 @@
         <f t="shared" si="1"/>
         <v>6176.0705281647843</v>
       </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -8757,6 +8821,12 @@
         <f t="shared" si="1"/>
         <v>6152.9219137290802</v>
       </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -8784,6 +8854,12 @@
         <f t="shared" si="1"/>
         <v>4005.8060448920014</v>
       </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -8811,6 +8887,12 @@
         <f t="shared" si="1"/>
         <v>2914.5591936604305</v>
       </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -8838,6 +8920,12 @@
         <f t="shared" si="1"/>
         <v>2087.2795968302153</v>
       </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -8865,6 +8953,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -8892,8 +8986,14 @@
         <f t="shared" si="1"/>
         <v>4440.6549119725414</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>137.4</v>
       </c>
@@ -8919,8 +9019,14 @@
         <f t="shared" si="1"/>
         <v>2965.4408063395817</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>139.69999999999999</v>
       </c>
@@ -8946,8 +9052,14 @@
         <f t="shared" si="1"/>
         <v>4712.1284639107535</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>142</v>
       </c>
@@ -8974,7 +9086,7 @@
         <v>3074.84886708054</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>144.6</v>
       </c>
@@ -9001,7 +9113,7 @@
         <v>3057.5692702503238</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>147</v>
       </c>
@@ -9028,7 +9140,7 @@
         <v>3520.2896734201195</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>149.30000000000001</v>
       </c>
@@ -9055,7 +9167,7 @@
         <v>5489.0428221885386</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>152.1</v>
       </c>
@@ -9082,7 +9194,7 @@
         <v>3827.7959709569459</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>154.4</v>
       </c>
@@ -9109,7 +9221,7 @@
         <v>7554.6473565212427</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>156.69999999999999</v>
       </c>
@@ -9136,7 +9248,7 @@
         <v>12709.433250888296</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>159</v>
       </c>
@@ -9163,7 +9275,7 @@
         <v>24488.186399656704</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>161.30000000000001</v>
       </c>
@@ -9190,7 +9302,7 @@
         <v>42777.103276418282</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>163.5</v>
       </c>
@@ -9217,7 +9329,7 @@
         <v>71955.856425186663</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>166.1</v>
       </c>
@@ -9244,7 +9356,7 @@
         <v>119104.60957395511</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>168</v>
       </c>
@@ -9271,7 +9383,7 @@
         <v>178403.36272272351</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>170.5</v>
       </c>
@@ -9298,7 +9410,7 @@
         <v>233832.11587149196</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>172.7</v>
       </c>
@@ -17056,6 +17168,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/PLOT_HOAc_9.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/PLOT_HOAc_9.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
@@ -216,9 +216,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1425,9 +1425,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2634,9 +2634,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3843,9 +3843,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5052,7 +5052,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6547,6 +6547,8 @@
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>QMS signal</a:t>
                 </a:r>
@@ -6555,6 +6557,8 @@
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t> (a.u.) </a:t>
                 </a:r>
@@ -6564,6 +6568,8 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>x 10</a:t>
                 </a:r>
@@ -6573,6 +6579,8 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>5</a:t>
                 </a:r>
@@ -6581,6 +6589,8 @@
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -8400,7 +8410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>

--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/PLOT_HOAc_9.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/PLOT_HOAc_9.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
@@ -6550,7 +6550,7 @@
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>QMS signal</a:t>
+                  <a:t>QMS Intensity</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600" b="0" baseline="0">
@@ -8084,6 +8084,50 @@
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10682</cdr:x>
+      <cdr:y>0.03455</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.23182</cdr:x>
+      <cdr:y>0.23455</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B0B517-FA29-4D0C-83CC-3936E355FAAA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="781396" y="157943"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>TPD</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
@@ -8410,8 +8454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
